--- a/new_results/scenario1/results.xlsx
+++ b/new_results/scenario1/results.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Folder\Studia-materialy_i_ksiazki\magisterka\MS_project2\new_results\scenario1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ax" sheetId="1" r:id="rId1"/>
     <sheet name="legacy" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="10">
   <si>
     <t>Sta_num</t>
   </si>
@@ -50,8 +55,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,17 +89,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -132,9 +145,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,9 +179,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +214,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -375,14 +390,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +415,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>263.19401769000001</v>
+      </c>
+      <c r="K1">
+        <v>4.1776828204761909</v>
+      </c>
+      <c r="L1">
+        <v>3.8001406650793652</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -407,16 +439,31 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>330.4289641890001</v>
+        <v>330.42896418900011</v>
       </c>
       <c r="D2">
-        <v>5.244904193476191</v>
+        <v>5.2449041934761906</v>
       </c>
       <c r="E2">
         <v>3.359923647619047</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>241.12791556100009</v>
+      </c>
+      <c r="K2">
+        <v>3.8274272311269848</v>
+      </c>
+      <c r="L2">
+        <v>3.8114920603174598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -424,16 +471,31 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>272.97632099</v>
+        <v>272.97632098999998</v>
       </c>
       <c r="D3">
-        <v>4.332957476031747</v>
+        <v>4.3329574760317469</v>
       </c>
       <c r="E3">
-        <v>3.204309377777778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3.2043093777777778</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>237.84069135600001</v>
+      </c>
+      <c r="K3">
+        <v>3.7752490691428582</v>
+      </c>
+      <c r="L3">
+        <v>3.81704933015873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -444,13 +506,28 @@
         <v>214.71023645</v>
       </c>
       <c r="D4">
-        <v>3.408098991269841</v>
+        <v>3.4080989912698412</v>
       </c>
       <c r="E4">
-        <v>2.963130153968254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>2.9631301539682542</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>212.90638373600009</v>
+      </c>
+      <c r="K4">
+        <v>3.3794664085079371</v>
+      </c>
+      <c r="L4">
+        <v>3.768662200000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -458,16 +535,31 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>277.5201278399999</v>
+        <v>277.52012783999987</v>
       </c>
       <c r="D5">
-        <v>4.405081394285714</v>
+        <v>4.4050813942857143</v>
       </c>
       <c r="E5">
-        <v>3.00067618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>3.0006761800000001</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>215.805416587</v>
+      </c>
+      <c r="K5">
+        <v>3.4254828029682538</v>
+      </c>
+      <c r="L5">
+        <v>3.681902942857143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -475,16 +567,31 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>259.26938912</v>
+        <v>259.26938912000003</v>
       </c>
       <c r="D6">
         <v>4.115387128888889</v>
       </c>
       <c r="E6">
-        <v>2.982087716666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2.9820877166666659</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>189.5814732</v>
+      </c>
+      <c r="K6">
+        <v>3.009229733333334</v>
+      </c>
+      <c r="L6">
+        <v>3.8536815730158729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -492,16 +599,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>304.7889972329999</v>
+        <v>304.78899723299992</v>
       </c>
       <c r="D7">
-        <v>4.837920591000001</v>
+        <v>4.8379205910000014</v>
       </c>
       <c r="E7">
-        <v>2.897594011111111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2.8975940111111109</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>215.72600696000001</v>
+      </c>
+      <c r="K7">
+        <v>3.4242223326984118</v>
+      </c>
+      <c r="L7">
+        <v>3.8361205214285712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -509,16 +631,31 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>233.3884078599999</v>
+        <v>233.38840785999989</v>
       </c>
       <c r="D8">
         <v>3.704577902539683</v>
       </c>
       <c r="E8">
-        <v>2.807348122222222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2.8073481222222219</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>245.41783691000001</v>
+      </c>
+      <c r="K8">
+        <v>3.8955212207936509</v>
+      </c>
+      <c r="L8">
+        <v>3.9248203730158728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -529,13 +666,28 @@
         <v>263.6790365199999</v>
       </c>
       <c r="D9">
-        <v>4.185381532063492</v>
+        <v>4.1853815320634924</v>
       </c>
       <c r="E9">
         <v>3.22315296031746</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>212.00642612999999</v>
+      </c>
+      <c r="K9">
+        <v>3.3651813671428572</v>
+      </c>
+      <c r="L9">
+        <v>3.7661929873015869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -543,16 +695,31 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>207.4036138</v>
+        <v>207.40361379999999</v>
       </c>
       <c r="D10">
         <v>3.292120853968254</v>
       </c>
       <c r="E10">
-        <v>2.802111965079365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>2.8021119650793649</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>226.826756792</v>
+      </c>
+      <c r="K10">
+        <v>3.600424710984127</v>
+      </c>
+      <c r="L10">
+        <v>3.9412194761904762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -563,13 +730,28 @@
         <v>212.26173634</v>
       </c>
       <c r="D11">
-        <v>3.36923391015873</v>
+        <v>3.3692339101587301</v>
       </c>
       <c r="E11">
-        <v>3.287420161904762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>3.2874201619047621</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>238.35385935999989</v>
+      </c>
+      <c r="K11">
+        <v>3.7833945930158732</v>
+      </c>
+      <c r="L11">
+        <v>3.721616222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -577,16 +759,31 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>176.39225615</v>
+        <v>176.39225615000001</v>
       </c>
       <c r="D12">
-        <v>2.799877081746031</v>
+        <v>2.7998770817460308</v>
       </c>
       <c r="E12">
-        <v>3.19842342063492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>3.1984234206349198</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>244.70765986000001</v>
+      </c>
+      <c r="K12">
+        <v>3.8842485692063491</v>
+      </c>
+      <c r="L12">
+        <v>3.7277408380952379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -594,16 +791,31 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>179.3826711</v>
+        <v>179.38267110000001</v>
       </c>
       <c r="D13">
-        <v>2.847343985714286</v>
+        <v>2.8473439857142862</v>
       </c>
       <c r="E13">
-        <v>2.964770674285714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>2.9647706742857141</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>244.40968480000001</v>
+      </c>
+      <c r="K13">
+        <v>3.8795188063492061</v>
+      </c>
+      <c r="L13">
+        <v>3.4436004333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -611,16 +823,31 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>254.7103085379999</v>
+        <v>254.71030853799991</v>
       </c>
       <c r="D14">
-        <v>4.043020770444445</v>
+        <v>4.0430207704444454</v>
       </c>
       <c r="E14">
-        <v>3.417698411111111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>3.4176984111111111</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>219.68851966499989</v>
+      </c>
+      <c r="K14">
+        <v>3.4871193597619041</v>
+      </c>
+      <c r="L14">
+        <v>3.6329107773015878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -628,16 +855,31 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>161.654999932</v>
+        <v>161.65499993200001</v>
       </c>
       <c r="D15">
-        <v>2.565952379873015</v>
+        <v>2.5659523798730151</v>
       </c>
       <c r="E15">
         <v>3.033611507936508</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>181.14480887600001</v>
+      </c>
+      <c r="K15">
+        <v>2.8753144266031749</v>
+      </c>
+      <c r="L15">
+        <v>3.8578743814285721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -651,10 +893,25 @@
         <v>2.807449161428571</v>
       </c>
       <c r="E16">
-        <v>2.793886336507937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>2.7938863365079372</v>
+      </c>
+      <c r="H16">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>199.21954701199999</v>
+      </c>
+      <c r="K16">
+        <v>3.1622150319365079</v>
+      </c>
+      <c r="L16">
+        <v>3.5277679444444439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -662,16 +919,31 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>293.20633736</v>
+        <v>293.20633736000002</v>
       </c>
       <c r="D17">
         <v>4.654068846984126</v>
       </c>
       <c r="E17">
-        <v>3.348007864761905</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>3.3480078647619052</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>204.93210273</v>
+      </c>
+      <c r="K17">
+        <v>3.2528905195238091</v>
+      </c>
+      <c r="L17">
+        <v>3.689128471428571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -679,16 +951,31 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>268.26367157</v>
+        <v>268.26367156999999</v>
       </c>
       <c r="D18">
-        <v>4.258153516984127</v>
+        <v>4.2581535169841267</v>
       </c>
       <c r="E18">
-        <v>3.200507128571428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>3.2005071285714282</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>181.55521304000001</v>
+      </c>
+      <c r="K18">
+        <v>2.8818287784126988</v>
+      </c>
+      <c r="L18">
+        <v>3.7371354142857141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -696,16 +983,31 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>277.8447893699999</v>
+        <v>277.84478936999989</v>
       </c>
       <c r="D19">
-        <v>4.410234751904761</v>
+        <v>4.4102347519047607</v>
       </c>
       <c r="E19">
-        <v>2.960641283015873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>2.9606412830158728</v>
+      </c>
+      <c r="H19">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>177.038946786</v>
+      </c>
+      <c r="K19">
+        <v>2.8101420124761911</v>
+      </c>
+      <c r="L19">
+        <v>3.697076122539682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -713,16 +1015,31 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>273.11272073</v>
+        <v>273.11272072999998</v>
       </c>
       <c r="D20">
-        <v>4.335122551269841</v>
+        <v>4.3351225512698406</v>
       </c>
       <c r="E20">
-        <v>3.169523338095238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>3.1695233380952379</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>167.22972546</v>
+      </c>
+      <c r="K20">
+        <v>2.654440086666666</v>
+      </c>
+      <c r="L20">
+        <v>3.676714444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -730,16 +1047,31 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>265.56533996</v>
+        <v>265.56533996000002</v>
       </c>
       <c r="D21">
         <v>4.215322856507937</v>
       </c>
       <c r="E21">
-        <v>2.941063331746031</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>2.9410633317460309</v>
+      </c>
+      <c r="H21">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>143.62923663000001</v>
+      </c>
+      <c r="K21">
+        <v>2.2798291528571428</v>
+      </c>
+      <c r="L21">
+        <v>3.647767682539683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -747,16 +1079,16 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>302.011320766</v>
+        <v>302.01132076599998</v>
       </c>
       <c r="D22">
-        <v>4.793830488349207</v>
+        <v>4.7938304883492071</v>
       </c>
       <c r="E22">
         <v>3.153085455555555</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -764,7 +1096,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>183.503498356</v>
+        <v>183.50349835599999</v>
       </c>
       <c r="D23">
         <v>2.912753942158731</v>
@@ -773,7 +1105,7 @@
         <v>4.216524282539682</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -781,16 +1113,16 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>177.7049398300001</v>
+        <v>177.70493983000009</v>
       </c>
       <c r="D24">
-        <v>2.820713330634921</v>
+        <v>2.8207133306349208</v>
       </c>
       <c r="E24">
         <v>3.746073782539681</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -798,16 +1130,16 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>168.323182572</v>
+        <v>168.32318257200001</v>
       </c>
       <c r="D25">
         <v>2.671796548761904</v>
       </c>
       <c r="E25">
-        <v>4.296860687301588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>4.2968606873015878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -818,13 +1150,13 @@
         <v>168.44385531</v>
       </c>
       <c r="D26">
-        <v>2.673711989047619</v>
+        <v>2.6737119890476189</v>
       </c>
       <c r="E26">
         <v>4.19059754126984</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -832,16 +1164,16 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>147.830948794</v>
+        <v>147.83094879399999</v>
       </c>
       <c r="D27">
-        <v>2.346522996730158</v>
+        <v>2.3465229967301582</v>
       </c>
       <c r="E27">
-        <v>3.965534346031747</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>3.9655343460317471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -849,16 +1181,16 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>165.68945733</v>
+        <v>165.68945733000001</v>
       </c>
       <c r="D28">
         <v>2.629991386190476</v>
       </c>
       <c r="E28">
-        <v>4.306706946031746</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>4.3067069460317464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -866,16 +1198,16 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>147.6456997290001</v>
+        <v>147.64569972900011</v>
       </c>
       <c r="D29">
-        <v>2.343582535380952</v>
+        <v>2.3435825353809521</v>
       </c>
       <c r="E29">
         <v>3.904336388888888</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -886,13 +1218,13 @@
         <v>137.55833278</v>
       </c>
       <c r="D30">
-        <v>2.183465599682539</v>
+        <v>2.1834655996825392</v>
       </c>
       <c r="E30">
         <v>3.980216599999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
@@ -903,13 +1235,13 @@
         <v>151.72659087</v>
       </c>
       <c r="D31">
-        <v>2.408358585238095</v>
+        <v>2.4083585852380951</v>
       </c>
       <c r="E31">
-        <v>3.893569607936508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>3.8935696079365081</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
@@ -917,16 +1249,16 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>126.786994152</v>
+        <v>126.78699415200001</v>
       </c>
       <c r="D32">
-        <v>2.012491970666667</v>
+        <v>2.0124919706666669</v>
       </c>
       <c r="E32">
         <v>3.728014082539683</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19</v>
       </c>
@@ -934,16 +1266,16 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>146.69454813</v>
+        <v>146.69454812999999</v>
       </c>
       <c r="D33">
-        <v>2.328484890952381</v>
+        <v>2.3284848909523812</v>
       </c>
       <c r="E33">
         <v>3.928708987301587</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -951,16 +1283,16 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>162.531657027</v>
+        <v>162.53165702699999</v>
       </c>
       <c r="D34">
-        <v>2.579867571857143</v>
+        <v>2.5798675718571431</v>
       </c>
       <c r="E34">
-        <v>4.206754236507937</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>4.2067542365079369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -968,16 +1300,16 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>148.094349484</v>
+        <v>148.09434948399999</v>
       </c>
       <c r="D35">
         <v>2.350703960063492</v>
       </c>
       <c r="E35">
-        <v>4.166287830158731</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>4.1662878301587307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -985,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>164.70322351</v>
+        <v>164.70322350999999</v>
       </c>
       <c r="D36">
         <v>2.614336881111111</v>
@@ -994,7 +1326,7 @@
         <v>3.896423663492063</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1002,16 +1334,16 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>256.80714414</v>
+        <v>256.80714413999999</v>
       </c>
       <c r="D37">
-        <v>4.076303875238095</v>
+        <v>4.0763038752380947</v>
       </c>
       <c r="E37">
-        <v>4.070847038095239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>4.0708470380952386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1019,16 +1351,16 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>171.333355288</v>
+        <v>171.33335528800001</v>
       </c>
       <c r="D38">
-        <v>2.719577068063492</v>
+        <v>2.7195770680634919</v>
       </c>
       <c r="E38">
         <v>3.807273741904762</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1042,10 +1374,10 @@
         <v>3.316012655396825</v>
       </c>
       <c r="E39">
-        <v>4.171363342857143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>4.1713633428571431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -1053,16 +1385,16 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>161.712585126</v>
+        <v>161.71258512599999</v>
       </c>
       <c r="D40">
-        <v>2.566866430571428</v>
+        <v>2.5668664305714279</v>
       </c>
       <c r="E40">
-        <v>3.874963996825396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>3.8749639968253962</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -1070,16 +1402,16 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>171.6724503</v>
+        <v>171.67245030000001</v>
       </c>
       <c r="D41">
         <v>2.724959528571429</v>
       </c>
       <c r="E41">
-        <v>4.093286720634921</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>4.0932867206349206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -1087,16 +1419,16 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>179.9062630079999</v>
+        <v>179.90626300799991</v>
       </c>
       <c r="D42">
-        <v>2.855654968380952</v>
+        <v>2.8556549683809518</v>
       </c>
       <c r="E42">
         <v>3.99302043015873</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1104,7 +1436,7 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>197.236966651</v>
+        <v>197.23696665099999</v>
       </c>
       <c r="D43">
         <v>3.130745502396826</v>
@@ -1113,7 +1445,7 @@
         <v>3.034160180952381</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -1121,16 +1453,16 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>179.94494668</v>
+        <v>179.94494667999999</v>
       </c>
       <c r="D44">
-        <v>2.856268994920635</v>
+        <v>2.8562689949206348</v>
       </c>
       <c r="E44">
-        <v>3.091414192063492</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>3.0914141920634921</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -1138,16 +1470,16 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>145.90355332</v>
+        <v>145.90355331999999</v>
       </c>
       <c r="D45">
-        <v>2.315929417777778</v>
+        <v>2.3159294177777778</v>
       </c>
       <c r="E45">
-        <v>2.784335233333333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>2.7843352333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13</v>
       </c>
@@ -1155,16 +1487,16 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>157.61094829</v>
+        <v>157.61094829000001</v>
       </c>
       <c r="D46">
-        <v>2.501761083968254</v>
+        <v>2.5017610839682538</v>
       </c>
       <c r="E46">
-        <v>2.929969101587302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>2.9299691015873019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -1175,13 +1507,13 @@
         <v>173.89155166</v>
       </c>
       <c r="D47">
-        <v>2.76018335968254</v>
+        <v>2.7601833596825398</v>
       </c>
       <c r="E47">
-        <v>2.834074896825397</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>2.8340748968253968</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16</v>
       </c>
@@ -1189,16 +1521,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>143.861441793</v>
+        <v>143.86144179300001</v>
       </c>
       <c r="D48">
-        <v>2.283514949095237</v>
+        <v>2.2835149490952369</v>
       </c>
       <c r="E48">
-        <v>3.169375207936508</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>3.1693752079365081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17</v>
       </c>
@@ -1206,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>182.237736602</v>
+        <v>182.23773660200001</v>
       </c>
       <c r="D49">
         <v>2.892662485746031</v>
@@ -1215,7 +1547,7 @@
         <v>3.091788563492063</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>18</v>
       </c>
@@ -1223,16 +1555,16 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>138.87371581</v>
+        <v>138.87371580999999</v>
       </c>
       <c r="D50">
-        <v>2.204344695396825</v>
+        <v>2.2043446953968249</v>
       </c>
       <c r="E50">
-        <v>2.89092893968254</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>2.8909289396825399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19</v>
       </c>
@@ -1240,16 +1572,16 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>149.1447664599999</v>
+        <v>149.14476645999989</v>
       </c>
       <c r="D51">
-        <v>2.367377245396825</v>
+        <v>2.3673772453968249</v>
       </c>
       <c r="E51">
-        <v>2.989051469841269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>2.9890514698412689</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1260,13 +1592,13 @@
         <v>194.32668368</v>
       </c>
       <c r="D52">
-        <v>3.084550534603175</v>
+        <v>3.0845505346031752</v>
       </c>
       <c r="E52">
-        <v>3.236520023809525</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>3.2365200238095251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20</v>
       </c>
@@ -1277,13 +1609,13 @@
         <v>207.50388224</v>
       </c>
       <c r="D53">
-        <v>3.293712416507936</v>
+        <v>3.2937124165079359</v>
       </c>
       <c r="E53">
-        <v>3.114575477619048</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>3.1145754776190482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1291,16 +1623,16 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>179.969294514</v>
+        <v>179.96929451400001</v>
       </c>
       <c r="D54">
-        <v>2.85665546847619</v>
+        <v>2.8566554684761898</v>
       </c>
       <c r="E54">
         <v>3.65233357936508</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1308,16 +1640,16 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>186.539861716</v>
+        <v>186.53986171599999</v>
       </c>
       <c r="D55">
-        <v>2.960950185968254</v>
+        <v>2.9609501859682541</v>
       </c>
       <c r="E55">
         <v>3.331883531746032</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -1328,13 +1660,13 @@
         <v>184.516887363</v>
       </c>
       <c r="D56">
-        <v>2.928839481952381</v>
+        <v>2.9288394819523811</v>
       </c>
       <c r="E56">
-        <v>3.41664693015873</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>3.4166469301587301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -1342,16 +1674,16 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>196.37555062</v>
+        <v>196.37555062000001</v>
       </c>
       <c r="D57">
-        <v>3.117072232063492</v>
+        <v>3.1170722320634918</v>
       </c>
       <c r="E57">
         <v>3.25054347936508</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -1359,16 +1691,16 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>179.762240162</v>
+        <v>179.76224016200001</v>
       </c>
       <c r="D58">
-        <v>2.853368891460318</v>
+        <v>2.8533688914603181</v>
       </c>
       <c r="E58">
-        <v>3.668755204761905</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>3.6687552047619052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
@@ -1379,13 +1711,13 @@
         <v>147.67257418</v>
       </c>
       <c r="D59">
-        <v>2.344009113968254</v>
+        <v>2.3440091139682542</v>
       </c>
       <c r="E59">
         <v>3.310464249206349</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -1399,10 +1731,10 @@
         <v>2.38838299147619</v>
       </c>
       <c r="E60">
-        <v>3.21264993015873</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>3.2126499301587299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1410,16 +1742,16 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>263.19401769</v>
+        <v>263.19401769000001</v>
       </c>
       <c r="D61">
-        <v>4.177682820476191</v>
+        <v>4.1776828204761909</v>
       </c>
       <c r="E61">
-        <v>3.800140665079365</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>3.8001406650793652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1427,16 +1759,16 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>241.1279155610001</v>
+        <v>241.12791556100009</v>
       </c>
       <c r="D62">
-        <v>3.827427231126985</v>
+        <v>3.8274272311269848</v>
       </c>
       <c r="E62">
-        <v>3.81149206031746</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>3.8114920603174598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10</v>
       </c>
@@ -1450,10 +1782,10 @@
         <v>3.600424710984127</v>
       </c>
       <c r="E63">
-        <v>3.941219476190476</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>3.9412194761904762</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -1461,16 +1793,16 @@
         <v>8</v>
       </c>
       <c r="C64">
-        <v>238.3538593599999</v>
+        <v>238.35385935999989</v>
       </c>
       <c r="D64">
-        <v>3.783394593015873</v>
+        <v>3.7833945930158732</v>
       </c>
       <c r="E64">
         <v>3.721616222222222</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -1478,16 +1810,16 @@
         <v>8</v>
       </c>
       <c r="C65">
-        <v>244.70765986</v>
+        <v>244.70765986000001</v>
       </c>
       <c r="D65">
-        <v>3.884248569206349</v>
+        <v>3.8842485692063491</v>
       </c>
       <c r="E65">
-        <v>3.727740838095238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>3.7277408380952379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13</v>
       </c>
@@ -1495,16 +1827,16 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <v>244.4096848</v>
+        <v>244.40968480000001</v>
       </c>
       <c r="D66">
-        <v>3.879518806349206</v>
+        <v>3.8795188063492061</v>
       </c>
       <c r="E66">
-        <v>3.443600433333333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>3.4436004333333332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
@@ -1512,16 +1844,16 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>219.6885196649999</v>
+        <v>219.68851966499989</v>
       </c>
       <c r="D67">
-        <v>3.487119359761904</v>
+        <v>3.4871193597619041</v>
       </c>
       <c r="E67">
-        <v>3.632910777301588</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>3.6329107773015878</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15</v>
       </c>
@@ -1529,16 +1861,16 @@
         <v>8</v>
       </c>
       <c r="C68">
-        <v>181.144808876</v>
+        <v>181.14480887600001</v>
       </c>
       <c r="D68">
-        <v>2.875314426603175</v>
+        <v>2.8753144266031749</v>
       </c>
       <c r="E68">
-        <v>3.857874381428572</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>3.8578743814285721</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -1546,16 +1878,16 @@
         <v>8</v>
       </c>
       <c r="C69">
-        <v>199.219547012</v>
+        <v>199.21954701199999</v>
       </c>
       <c r="D69">
-        <v>3.162215031936508</v>
+        <v>3.1622150319365079</v>
       </c>
       <c r="E69">
-        <v>3.527767944444444</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>3.5277679444444439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>17</v>
       </c>
@@ -1566,13 +1898,13 @@
         <v>204.93210273</v>
       </c>
       <c r="D70">
-        <v>3.252890519523809</v>
+        <v>3.2528905195238091</v>
       </c>
       <c r="E70">
         <v>3.689128471428571</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>18</v>
       </c>
@@ -1580,16 +1912,16 @@
         <v>8</v>
       </c>
       <c r="C71">
-        <v>181.55521304</v>
+        <v>181.55521304000001</v>
       </c>
       <c r="D71">
-        <v>2.881828778412699</v>
+        <v>2.8818287784126988</v>
       </c>
       <c r="E71">
-        <v>3.737135414285714</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>3.7371354142857141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>19</v>
       </c>
@@ -1600,13 +1932,13 @@
         <v>177.038946786</v>
       </c>
       <c r="D72">
-        <v>2.810142012476191</v>
+        <v>2.8101420124761911</v>
       </c>
       <c r="E72">
         <v>3.697076122539682</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -1614,16 +1946,16 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>237.840691356</v>
+        <v>237.84069135600001</v>
       </c>
       <c r="D73">
-        <v>3.775249069142858</v>
+        <v>3.7752490691428582</v>
       </c>
       <c r="E73">
         <v>3.81704933015873</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20</v>
       </c>
@@ -1640,7 +1972,7 @@
         <v>3.676714444444444</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>21</v>
       </c>
@@ -1648,16 +1980,16 @@
         <v>8</v>
       </c>
       <c r="C75">
-        <v>143.62923663</v>
+        <v>143.62923663000001</v>
       </c>
       <c r="D75">
-        <v>2.279829152857143</v>
+        <v>2.2798291528571428</v>
       </c>
       <c r="E75">
         <v>3.647767682539683</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -1665,16 +1997,16 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>212.9063837360001</v>
+        <v>212.90638373600009</v>
       </c>
       <c r="D76">
-        <v>3.379466408507937</v>
+        <v>3.3794664085079371</v>
       </c>
       <c r="E76">
         <v>3.768662200000001</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -1685,13 +2017,13 @@
         <v>215.805416587</v>
       </c>
       <c r="D77">
-        <v>3.425482802968254</v>
+        <v>3.4254828029682538</v>
       </c>
       <c r="E77">
         <v>3.681902942857143</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -1705,10 +2037,10 @@
         <v>3.009229733333334</v>
       </c>
       <c r="E78">
-        <v>3.853681573015873</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>3.8536815730158729</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -1716,16 +2048,16 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <v>215.72600696</v>
+        <v>215.72600696000001</v>
       </c>
       <c r="D79">
-        <v>3.424222332698412</v>
+        <v>3.4242223326984118</v>
       </c>
       <c r="E79">
-        <v>3.836120521428571</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>3.8361205214285712</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>8</v>
       </c>
@@ -1733,16 +2065,16 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <v>245.41783691</v>
+        <v>245.41783691000001</v>
       </c>
       <c r="D80">
-        <v>3.895521220793651</v>
+        <v>3.8955212207936509</v>
       </c>
       <c r="E80">
-        <v>3.924820373015873</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>3.9248203730158728</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9</v>
       </c>
@@ -1750,16 +2082,16 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>212.00642613</v>
+        <v>212.00642612999999</v>
       </c>
       <c r="D81">
-        <v>3.365181367142857</v>
+        <v>3.3651813671428572</v>
       </c>
       <c r="E81">
-        <v>3.766192987301587</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>3.7661929873015869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -1767,16 +2099,16 @@
         <v>9</v>
       </c>
       <c r="C82">
-        <v>209.7648453050001</v>
+        <v>209.76484530500011</v>
       </c>
       <c r="D82">
-        <v>3.329600719126984</v>
+        <v>3.3296007191269839</v>
       </c>
       <c r="E82">
-        <v>3.921446807936508</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>3.9214468079365079</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -1784,16 +2116,16 @@
         <v>9</v>
       </c>
       <c r="C83">
-        <v>211.28097973</v>
+        <v>211.28097973000001</v>
       </c>
       <c r="D83">
-        <v>3.353666344920635</v>
+        <v>3.3536663449206352</v>
       </c>
       <c r="E83">
-        <v>3.40194833015873</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>3.4019483301587301</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10</v>
       </c>
@@ -1801,16 +2133,16 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>171.2972198420001</v>
+        <v>171.29721984200009</v>
       </c>
       <c r="D84">
         <v>2.719003489555555</v>
       </c>
       <c r="E84">
-        <v>3.405246849206349</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>3.4052468492063488</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11</v>
       </c>
@@ -1821,13 +2153,13 @@
         <v>175.234851687</v>
       </c>
       <c r="D85">
-        <v>2.781505582333333</v>
+        <v>2.7815055823333328</v>
       </c>
       <c r="E85">
-        <v>3.399353104761904</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>3.3993531047619041</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
@@ -1838,13 +2170,13 @@
         <v>159.212597238</v>
       </c>
       <c r="D86">
-        <v>2.527184083142857</v>
+        <v>2.5271840831428571</v>
       </c>
       <c r="E86">
         <v>3.422913180793651</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13</v>
       </c>
@@ -1855,13 +2187,13 @@
         <v>260.555034218</v>
       </c>
       <c r="D87">
-        <v>4.135794193936508</v>
+        <v>4.1357941939365084</v>
       </c>
       <c r="E87">
-        <v>3.420699087142857</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>3.4206990871428569</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
@@ -1878,7 +2210,7 @@
         <v>3.095890401587301</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>16</v>
       </c>
@@ -1892,10 +2224,10 @@
         <v>3.967323649190476</v>
       </c>
       <c r="E89">
-        <v>3.633744244444444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>3.6337442444444439</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17</v>
       </c>
@@ -1903,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>178.184892868</v>
+        <v>178.18489286799999</v>
       </c>
       <c r="D90">
         <v>2.828331632825396</v>
@@ -1912,7 +2244,7 @@
         <v>3.319582611111112</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>19</v>
       </c>
@@ -1923,13 +2255,13 @@
         <v>162.54337071</v>
       </c>
       <c r="D91">
-        <v>2.580053503333333</v>
+        <v>2.5800535033333332</v>
       </c>
       <c r="E91">
         <v>3.230221206349206</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -1937,16 +2269,16 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>232.89584672</v>
+        <v>232.89584672000001</v>
       </c>
       <c r="D92">
-        <v>3.696759471746032</v>
+        <v>3.6967594717460321</v>
       </c>
       <c r="E92">
-        <v>3.495159232539683</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>3.4951592325396832</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20</v>
       </c>
@@ -1954,16 +2286,16 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>155.580975551</v>
+        <v>155.58097555099999</v>
       </c>
       <c r="D93">
-        <v>2.469539294460317</v>
+        <v>2.4695392944603172</v>
       </c>
       <c r="E93">
         <v>3.215558009523809</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>21</v>
       </c>
@@ -1971,7 +2303,7 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>152.483910892</v>
+        <v>152.48391089200001</v>
       </c>
       <c r="D94">
         <v>2.420379537968254</v>
@@ -1980,7 +2312,7 @@
         <v>3.421922063492064</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -1988,16 +2320,16 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>249.2184711099999</v>
+        <v>249.21847110999991</v>
       </c>
       <c r="D95">
         <v>3.955848747777778</v>
       </c>
       <c r="E95">
-        <v>3.492123606349207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>3.4921236063492072</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2005,16 +2337,16 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>200.48400036</v>
+        <v>200.48400036000001</v>
       </c>
       <c r="D96">
-        <v>3.18228572</v>
+        <v>3.1822857199999999</v>
       </c>
       <c r="E96">
-        <v>3.526317231111112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>3.5263172311111122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5</v>
       </c>
@@ -2022,16 +2354,16 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>188.24431125</v>
+        <v>188.24431125000001</v>
       </c>
       <c r="D97">
-        <v>2.98800494047619</v>
+        <v>2.9880049404761899</v>
       </c>
       <c r="E97">
-        <v>3.455894663492065</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>3.4558946634920651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6</v>
       </c>
@@ -2042,13 +2374,13 @@
         <v>187.30187741</v>
       </c>
       <c r="D98">
-        <v>2.973045673174603</v>
+        <v>2.9730456731746031</v>
       </c>
       <c r="E98">
-        <v>3.505361042857143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>3.5053610428571429</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7</v>
       </c>
@@ -2056,16 +2388,16 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>170.964302271</v>
+        <v>170.96430227100001</v>
       </c>
       <c r="D99">
-        <v>2.713719083666666</v>
+        <v>2.7137190836666658</v>
       </c>
       <c r="E99">
         <v>3.547780136507936</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>8</v>
       </c>
@@ -2076,13 +2408,13 @@
         <v>198.1875764000001</v>
       </c>
       <c r="D100">
-        <v>3.145834546031746</v>
+        <v>3.1458345460317458</v>
       </c>
       <c r="E100">
-        <v>3.646630903174603</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>3.6466309031746031</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9</v>
       </c>
@@ -2090,29 +2422,34 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>175.9614619499999</v>
+        <v>175.96146194999989</v>
       </c>
       <c r="D101">
-        <v>2.793039078571429</v>
+        <v>2.7930390785714292</v>
       </c>
       <c r="E101">
         <v>3.327722644444445</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="H1:L101">
+    <sortCondition ref="H1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2128,8 +2465,40 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>2.92889E-3</v>
+      </c>
+      <c r="K2">
+        <v>1.464445E-3</v>
+      </c>
+      <c r="L2">
+        <v>3.856725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2145,8 +2514,23 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>0.12464455000000001</v>
+      </c>
+      <c r="K3">
+        <v>4.1548183333333343E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.3013066666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2157,13 +2541,28 @@
         <v>12.669974</v>
       </c>
       <c r="D4">
-        <v>1.2669974</v>
+        <v>1.2669973999999999</v>
       </c>
       <c r="E4">
         <v>2.66856743</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>1.0714925</v>
+      </c>
+      <c r="K4">
+        <v>0.26787312499999999</v>
+      </c>
+      <c r="L4">
+        <v>4.8225075000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -2177,10 +2576,25 @@
         <v>2.054577090909091</v>
       </c>
       <c r="E5">
-        <v>2.945789090909091</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2.9457890909090909</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>2.6146943999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.52293887999999999</v>
+      </c>
+      <c r="L5">
+        <v>2.990246959999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -2188,16 +2602,31 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>24.70039879</v>
+        <v>24.700398790000001</v>
       </c>
       <c r="D6">
-        <v>2.058366565833334</v>
+        <v>2.0583665658333339</v>
       </c>
       <c r="E6">
         <v>3.499249166666667</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>12.63791</v>
+      </c>
+      <c r="K6">
+        <v>2.1063183333333328</v>
+      </c>
+      <c r="L6">
+        <v>3.941583333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -2205,16 +2634,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>27.13828661</v>
+        <v>27.138286610000002</v>
       </c>
       <c r="D7">
         <v>2.087560508461539</v>
       </c>
       <c r="E7">
-        <v>3.94429193076923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.9442919307692299</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>16.280936000000001</v>
+      </c>
+      <c r="K7">
+        <v>2.3258480000000001</v>
+      </c>
+      <c r="L7">
+        <v>3.801177442857143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2222,16 +2666,31 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>27.95646169</v>
+        <v>27.956461690000001</v>
       </c>
       <c r="D8">
         <v>1.996890120714286</v>
       </c>
       <c r="E8">
-        <v>3.400317864285714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3.4003178642857139</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>18.621275000000001</v>
+      </c>
+      <c r="K8">
+        <v>2.3276593750000001</v>
+      </c>
+      <c r="L8">
+        <v>3.279057275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -2239,16 +2698,31 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>27.211926</v>
+        <v>27.211925999999998</v>
       </c>
       <c r="D9">
         <v>1.8141284</v>
       </c>
       <c r="E9">
-        <v>3.031430366666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>3.0314303666666662</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>15.0148463</v>
+      </c>
+      <c r="K9">
+        <v>1.668316255555556</v>
+      </c>
+      <c r="L9">
+        <v>2.4073248444444442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>16</v>
       </c>
@@ -2256,16 +2730,31 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>44.544482</v>
+        <v>44.544482000000002</v>
       </c>
       <c r="D10">
-        <v>2.784030125</v>
+        <v>2.7840301250000001</v>
       </c>
       <c r="E10">
         <v>3.67751316875</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>15.3096674</v>
+      </c>
+      <c r="K10">
+        <v>1.53096674</v>
+      </c>
+      <c r="L10">
+        <v>2.7566074999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -2273,16 +2762,31 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>63.50983720000001</v>
+        <v>63.509837200000007</v>
       </c>
       <c r="D11">
-        <v>3.735872776470588</v>
+        <v>3.7358727764705879</v>
       </c>
       <c r="E11">
-        <v>3.231636029411764</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>3.2316360294117641</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>13.071498050000001</v>
+      </c>
+      <c r="K11">
+        <v>1.1883180045454551</v>
+      </c>
+      <c r="L11">
+        <v>3.5593263636363628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18</v>
       </c>
@@ -2290,16 +2794,31 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>32.07404640000001</v>
+        <v>32.074046400000007</v>
       </c>
       <c r="D12">
         <v>1.781891466666667</v>
       </c>
       <c r="E12">
-        <v>3.555668722222222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>3.5556687222222219</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>28.25576616</v>
+      </c>
+      <c r="K12">
+        <v>2.3546471800000002</v>
+      </c>
+      <c r="L12">
+        <v>3.062154908333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>19</v>
       </c>
@@ -2307,16 +2826,31 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>36.672938</v>
+        <v>36.672938000000002</v>
       </c>
       <c r="D13">
         <v>1.930154631578948</v>
       </c>
       <c r="E13">
-        <v>3.008300163157895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>3.0083001631578949</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>17.95531884</v>
+      </c>
+      <c r="K13">
+        <v>1.381178372307692</v>
+      </c>
+      <c r="L13">
+        <v>3.2628230769230768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2324,16 +2858,31 @@
         <v>5</v>
       </c>
       <c r="C14">
-        <v>0.307675</v>
+        <v>0.30767499999999998</v>
       </c>
       <c r="D14">
-        <v>0.1538375</v>
+        <v>0.15383749999999999</v>
       </c>
       <c r="E14">
-        <v>2.97257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>2.9725700000000002</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>18.407505369999999</v>
+      </c>
+      <c r="K14">
+        <v>1.314821812142857</v>
+      </c>
+      <c r="L14">
+        <v>3.2744960642857142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
@@ -2347,10 +2896,25 @@
         <v>3.465840239999999</v>
       </c>
       <c r="E15">
-        <v>3.33175566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>3.3317556599999998</v>
+      </c>
+      <c r="H15">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>18.190452180000001</v>
+      </c>
+      <c r="K15">
+        <v>1.1369032612500001</v>
+      </c>
+      <c r="L15">
+        <v>1.8559077500000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -2364,10 +2928,25 @@
         <v>2.064706190476191</v>
       </c>
       <c r="E16">
-        <v>3.236730047619048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>3.2367300476190479</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>31.302927140000001</v>
+      </c>
+      <c r="K16">
+        <v>1.8413486552941181</v>
+      </c>
+      <c r="L16">
+        <v>3.2582772941176472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2378,13 +2957,28 @@
         <v>1.1012545</v>
       </c>
       <c r="D17">
-        <v>0.3670848333333334</v>
+        <v>0.36708483333333342</v>
       </c>
       <c r="E17">
         <v>3.8874</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>27.30468565</v>
+      </c>
+      <c r="K17">
+        <v>1.437088718421053</v>
+      </c>
+      <c r="L17">
+        <v>1.9109170263157891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2392,16 +2986,31 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>4.550005000000001</v>
+        <v>4.5500050000000014</v>
       </c>
       <c r="D18">
-        <v>1.13750125</v>
+        <v>1.1375012499999999</v>
       </c>
       <c r="E18">
-        <v>2.7770265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>2.7770264999999998</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>16.92415072</v>
+      </c>
+      <c r="K18">
+        <v>0.84620753599999998</v>
+      </c>
+      <c r="L18">
+        <v>2.4466561499999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -2409,16 +3018,31 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>2.705917</v>
+        <v>2.7059169999999999</v>
       </c>
       <c r="D19">
-        <v>0.5411834000000001</v>
+        <v>0.54118340000000009</v>
       </c>
       <c r="E19">
-        <v>4.511706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>4.5117060000000002</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>54.918885319999987</v>
+      </c>
+      <c r="K19">
+        <v>2.6151850152380951</v>
+      </c>
+      <c r="L19">
+        <v>3.0168019952380951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2426,16 +3050,16 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>5.944341000000001</v>
+        <v>5.9443410000000014</v>
       </c>
       <c r="D20">
-        <v>0.9907235000000001</v>
+        <v>0.99072350000000009</v>
       </c>
       <c r="E20">
         <v>3.729773633333334</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2449,10 +3073,10 @@
         <v>2.063600375</v>
       </c>
       <c r="E21">
-        <v>3.1859248875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>3.1859248875000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
@@ -2460,16 +3084,16 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>27.746481</v>
+        <v>27.746480999999999</v>
       </c>
       <c r="D22">
         <v>3.082942333333333</v>
       </c>
       <c r="E22">
-        <v>3.157581555555556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>3.1575815555555562</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2486,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
@@ -2494,16 +3118,16 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>13.3700144</v>
+        <v>13.370014400000001</v>
       </c>
       <c r="D25">
-        <v>1.33700144</v>
+        <v>1.3370014400000001</v>
       </c>
       <c r="E25">
-        <v>4.415165818</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>4.4151658180000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -2514,13 +3138,13 @@
         <v>15.7225006</v>
       </c>
       <c r="D26">
-        <v>1.429318236363636</v>
+        <v>1.4293182363636361</v>
       </c>
       <c r="E26">
-        <v>4.492026363636364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>4.4920263636363638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -2528,16 +3152,16 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>17.0776493</v>
+        <v>17.077649300000001</v>
       </c>
       <c r="D27">
-        <v>1.423137441666667</v>
+        <v>1.4231374416666669</v>
       </c>
       <c r="E27">
-        <v>4.386957525000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>4.3869575250000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -2551,10 +3175,10 @@
         <v>1.178894864615385</v>
       </c>
       <c r="E28">
-        <v>4.358032307692307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>4.3580323076923069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2562,16 +3186,16 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>17.64730927</v>
+        <v>17.647309270000001</v>
       </c>
       <c r="D29">
         <v>1.260522090714286</v>
       </c>
       <c r="E29">
-        <v>4.498770742857142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>4.4987707428571424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
@@ -2582,13 +3206,13 @@
         <v>13.58247899</v>
       </c>
       <c r="D30">
-        <v>0.9054985993333334</v>
+        <v>0.90549859933333343</v>
       </c>
       <c r="E30">
-        <v>4.556330399999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>4.5563303999999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16</v>
       </c>
@@ -2596,16 +3220,16 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>13.17731703</v>
+        <v>13.177317029999999</v>
       </c>
       <c r="D31">
-        <v>0.8235823143750001</v>
+        <v>0.82358231437500007</v>
       </c>
       <c r="E31">
-        <v>4.557256375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>4.5572563749999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>18</v>
       </c>
@@ -2613,16 +3237,16 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>14.2673116</v>
+        <v>14.267311599999999</v>
       </c>
       <c r="D32">
-        <v>0.7926284222222222</v>
+        <v>0.79262842222222218</v>
       </c>
       <c r="E32">
-        <v>3.891938333333333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>3.8919383333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19</v>
       </c>
@@ -2630,16 +3254,16 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>17.17055385</v>
+        <v>17.170553850000001</v>
       </c>
       <c r="D33">
-        <v>0.9037133605263157</v>
+        <v>0.90371336052631568</v>
       </c>
       <c r="E33">
-        <v>4.325210473684211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>4.3252104736842112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2647,16 +3271,16 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>5.30943</v>
+        <v>5.3094299999999999</v>
       </c>
       <c r="D34">
-        <v>2.654715</v>
+        <v>2.6547149999999999</v>
       </c>
       <c r="E34">
-        <v>2.66263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>2.6626300000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -2664,16 +3288,16 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>20.85273659</v>
+        <v>20.852736589999999</v>
       </c>
       <c r="D35">
-        <v>1.0426368295</v>
+        <v>1.0426368294999999</v>
       </c>
       <c r="E35">
-        <v>3.6165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>3.6164999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>21</v>
       </c>
@@ -2681,16 +3305,16 @@
         <v>6</v>
       </c>
       <c r="C36">
-        <v>35.52407247999999</v>
+        <v>35.524072479999987</v>
       </c>
       <c r="D36">
         <v>1.691622499047619</v>
       </c>
       <c r="E36">
-        <v>3.99411321904762</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>3.9941132190476201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2701,13 +3325,13 @@
         <v>10.936061</v>
       </c>
       <c r="D37">
-        <v>3.645353666666667</v>
+        <v>3.6453536666666668</v>
       </c>
       <c r="E37">
         <v>3.656868666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2715,16 +3339,16 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>8.706360699999999</v>
+        <v>8.7063606999999994</v>
       </c>
       <c r="D38">
-        <v>2.176590175</v>
+        <v>2.1765901749999998</v>
       </c>
       <c r="E38">
-        <v>4.298475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>4.2984749999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2732,16 +3356,16 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>16.8201817</v>
+        <v>16.820181699999999</v>
       </c>
       <c r="D39">
-        <v>3.364036340000001</v>
+        <v>3.3640363400000011</v>
       </c>
       <c r="E39">
         <v>4.03384242</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2755,10 +3379,10 @@
         <v>1.859079757142857</v>
       </c>
       <c r="E40">
-        <v>3.855155285714286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>3.8551552857142859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2766,16 +3390,16 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>9.658460999999999</v>
+        <v>9.6584609999999991</v>
       </c>
       <c r="D41">
-        <v>1.207307625</v>
+        <v>1.2073076250000001</v>
       </c>
       <c r="E41">
-        <v>4.40194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>4.4019399999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -2786,13 +3410,13 @@
         <v>7.985771999999999</v>
       </c>
       <c r="D42">
-        <v>0.8873079999999999</v>
+        <v>0.88730799999999987</v>
       </c>
       <c r="E42">
-        <v>4.268286444444445</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>4.2682864444444446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2800,16 +3424,16 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>0.162342</v>
+        <v>0.16234199999999999</v>
       </c>
       <c r="D43">
-        <v>0.162342</v>
+        <v>0.16234199999999999</v>
       </c>
       <c r="E43">
-        <v>5.94861</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>5.9486100000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10</v>
       </c>
@@ -2817,16 +3441,16 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>17.26376869</v>
+        <v>17.263768689999999</v>
       </c>
       <c r="D44">
-        <v>1.726376869</v>
+        <v>1.7263768690000001</v>
       </c>
       <c r="E44">
         <v>3.49057481</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -2834,16 +3458,16 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>5.81379546</v>
+        <v>5.8137954599999997</v>
       </c>
       <c r="D45">
-        <v>0.484482955</v>
+        <v>0.48448295499999999</v>
       </c>
       <c r="E45">
-        <v>4.22243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>4.2224300000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2857,10 +3481,10 @@
         <v>1.407514715384615</v>
       </c>
       <c r="E46">
-        <v>4.261419846153846</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>4.2614198461538457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -2868,16 +3492,16 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>24.59927912000001</v>
+        <v>24.599279120000009</v>
       </c>
       <c r="D47">
-        <v>1.757091365714286</v>
+        <v>1.7570913657142859</v>
       </c>
       <c r="E47">
-        <v>3.414697272071428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>3.4146972720714279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16</v>
       </c>
@@ -2885,16 +3509,16 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>20.65260930000001</v>
+        <v>20.652609300000009</v>
       </c>
       <c r="D48">
-        <v>1.29078808125</v>
+        <v>1.2907880812500001</v>
       </c>
       <c r="E48">
-        <v>3.731074375</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>3.7310743749999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17</v>
       </c>
@@ -2902,16 +3526,16 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>37.41504899</v>
+        <v>37.415048990000003</v>
       </c>
       <c r="D49">
-        <v>2.200885234705882</v>
+        <v>2.2008852347058818</v>
       </c>
       <c r="E49">
-        <v>4.201988823529413</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>4.2019888235294127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2919,16 +3543,16 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>35.83070619999999</v>
+        <v>35.830706199999987</v>
       </c>
       <c r="D50">
-        <v>1.990594788888889</v>
+        <v>1.9905947888888891</v>
       </c>
       <c r="E50">
-        <v>4.449166666666667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>4.4491666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19</v>
       </c>
@@ -2936,16 +3560,16 @@
         <v>7</v>
       </c>
       <c r="C51">
-        <v>50.05019005</v>
+        <v>50.050190049999998</v>
       </c>
       <c r="D51">
-        <v>2.634220528947368</v>
+        <v>2.6342205289473681</v>
       </c>
       <c r="E51">
-        <v>3.583207602631579</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>3.5832076026315791</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2953,16 +3577,16 @@
         <v>7</v>
       </c>
       <c r="C52">
-        <v>1.710316</v>
+        <v>1.7103159999999999</v>
       </c>
       <c r="D52">
-        <v>0.8551580000000001</v>
+        <v>0.85515800000000008</v>
       </c>
       <c r="E52">
-        <v>4.78542</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>4.7854200000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20</v>
       </c>
@@ -2970,16 +3594,16 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>38.72192130000001</v>
+        <v>38.721921300000012</v>
       </c>
       <c r="D53">
-        <v>1.936096065</v>
+        <v>1.9360960650000001</v>
       </c>
       <c r="E53">
-        <v>3.59519855</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>3.5951985500000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2990,13 +3614,13 @@
         <v>3.1099272</v>
       </c>
       <c r="D54">
-        <v>1.0366424</v>
+        <v>1.0366424000000001</v>
       </c>
       <c r="E54">
-        <v>4.681923333333333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>4.6819233333333328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -3004,16 +3628,16 @@
         <v>7</v>
       </c>
       <c r="C55">
-        <v>3.0883226</v>
+        <v>3.0883226000000001</v>
       </c>
       <c r="D55">
-        <v>0.7720806499999999</v>
+        <v>0.77208064999999992</v>
       </c>
       <c r="E55">
-        <v>5.18256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>5.1825599999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5</v>
       </c>
@@ -3024,13 +3648,13 @@
         <v>2.5705396</v>
       </c>
       <c r="D56">
-        <v>0.5141079199999999</v>
+        <v>0.51410791999999994</v>
       </c>
       <c r="E56">
-        <v>4.520882</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>4.5208820000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3038,16 +3662,16 @@
         <v>7</v>
       </c>
       <c r="C57">
-        <v>3.275108</v>
+        <v>3.2751079999999999</v>
       </c>
       <c r="D57">
-        <v>0.5458513333333334</v>
+        <v>0.54585133333333336</v>
       </c>
       <c r="E57">
-        <v>4.523813333333334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>4.5238133333333339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -3058,13 +3682,13 @@
         <v>22.3867981</v>
       </c>
       <c r="D58">
-        <v>3.198114014285715</v>
+        <v>3.1981140142857152</v>
       </c>
       <c r="E58">
-        <v>3.342388714285714</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>3.3423887142857138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
@@ -3072,16 +3696,16 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>4.0240885</v>
+        <v>4.0240885000000004</v>
       </c>
       <c r="D59">
-        <v>0.5030110624999999</v>
+        <v>0.50301106249999994</v>
       </c>
       <c r="E59">
         <v>3.62216</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>9</v>
       </c>
@@ -3089,16 +3713,16 @@
         <v>7</v>
       </c>
       <c r="C60">
-        <v>7.774118</v>
+        <v>7.7741179999999996</v>
       </c>
       <c r="D60">
-        <v>0.8637908888888889</v>
+        <v>0.86379088888888889</v>
       </c>
       <c r="E60">
-        <v>3.351848888888889</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>3.3518488888888891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3106,16 +3730,16 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>0.0462248</v>
+        <v>4.6224800000000003E-2</v>
       </c>
       <c r="D62">
-        <v>0.0462248</v>
+        <v>4.6224800000000003E-2</v>
       </c>
       <c r="E62">
         <v>0.246868</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10</v>
       </c>
@@ -3129,10 +3753,10 @@
         <v>2.44821423</v>
       </c>
       <c r="E63">
-        <v>3.012245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>3.0122450000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -3143,13 +3767,13 @@
         <v>34.1613866</v>
       </c>
       <c r="D64">
-        <v>3.1055806</v>
+        <v>3.1055806000000001</v>
       </c>
       <c r="E64">
         <v>3.608707872727273</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -3160,13 +3784,13 @@
         <v>28.8599967</v>
       </c>
       <c r="D65">
-        <v>2.404999725</v>
+        <v>2.4049997250000001</v>
       </c>
       <c r="E65">
         <v>3.414286666666666</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>13</v>
       </c>
@@ -3174,16 +3798,16 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <v>32.8869031</v>
+        <v>32.886903099999998</v>
       </c>
       <c r="D66">
-        <v>2.529761776923077</v>
+        <v>2.5297617769230771</v>
       </c>
       <c r="E66">
         <v>3.862641538461538</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3194,13 +3818,13 @@
         <v>25.9511176</v>
       </c>
       <c r="D67">
-        <v>1.853651257142857</v>
+        <v>1.8536512571428569</v>
       </c>
       <c r="E67">
         <v>3.666289357142857</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15</v>
       </c>
@@ -3208,16 +3832,16 @@
         <v>8</v>
       </c>
       <c r="C68">
-        <v>37.6004495</v>
+        <v>37.600449500000003</v>
       </c>
       <c r="D68">
         <v>2.506696633333334</v>
       </c>
       <c r="E68">
-        <v>3.318341266666666</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>3.3183412666666658</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -3228,13 +3852,13 @@
         <v>39.99798479999999</v>
       </c>
       <c r="D69">
-        <v>2.49987405</v>
+        <v>2.4998740499999998</v>
       </c>
       <c r="E69">
         <v>3.691518125</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>17</v>
       </c>
@@ -3251,7 +3875,7 @@
         <v>4.006694705882353</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>18</v>
       </c>
@@ -3262,13 +3886,13 @@
         <v>45.8065487</v>
       </c>
       <c r="D71">
-        <v>2.544808261111111</v>
+        <v>2.5448082611111111</v>
       </c>
       <c r="E71">
-        <v>4.124608531666667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>4.1246085316666674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>19</v>
       </c>
@@ -3276,16 +3900,16 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>47.54530205</v>
+        <v>47.545302049999997</v>
       </c>
       <c r="D72">
-        <v>2.502384318421053</v>
+        <v>2.5023843184210528</v>
       </c>
       <c r="E72">
-        <v>4.364838284210527</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>4.3648382842105269</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3293,16 +3917,16 @@
         <v>8</v>
       </c>
       <c r="C73">
-        <v>6.015309999999999</v>
+        <v>6.0153099999999986</v>
       </c>
       <c r="D73">
-        <v>3.007655</v>
+        <v>3.0076550000000002</v>
       </c>
       <c r="E73">
-        <v>5.541055</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>5.5410550000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>20</v>
       </c>
@@ -3310,16 +3934,16 @@
         <v>8</v>
       </c>
       <c r="C74">
-        <v>73.9689456</v>
+        <v>73.968945599999998</v>
       </c>
       <c r="D74">
-        <v>3.69844728</v>
+        <v>3.6984472799999999</v>
       </c>
       <c r="E74">
         <v>3.765552225</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>21</v>
       </c>
@@ -3327,7 +3951,7 @@
         <v>8</v>
       </c>
       <c r="C75">
-        <v>39.29328731</v>
+        <v>39.293287309999997</v>
       </c>
       <c r="D75">
         <v>1.87110891952381</v>
@@ -3336,7 +3960,7 @@
         <v>3.910157142857142</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3344,16 +3968,16 @@
         <v>8</v>
       </c>
       <c r="C76">
-        <v>4.59618</v>
+        <v>4.5961800000000004</v>
       </c>
       <c r="D76">
         <v>1.53206</v>
       </c>
       <c r="E76">
-        <v>4.05666</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>4.0566599999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3361,16 +3985,16 @@
         <v>8</v>
       </c>
       <c r="C77">
-        <v>28.459979</v>
+        <v>28.459979000000001</v>
       </c>
       <c r="D77">
-        <v>7.114994749999999</v>
+        <v>7.1149947499999993</v>
       </c>
       <c r="E77">
-        <v>3.7981975</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>3.7981975000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -3378,16 +4002,16 @@
         <v>8</v>
       </c>
       <c r="C78">
-        <v>20.398448</v>
+        <v>20.398447999999998</v>
       </c>
       <c r="D78">
         <v>4.0796896</v>
       </c>
       <c r="E78">
-        <v>3.22787</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>3.2278699999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6</v>
       </c>
@@ -3395,16 +4019,16 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <v>19.58729</v>
+        <v>19.587289999999999</v>
       </c>
       <c r="D79">
-        <v>3.264548333333333</v>
+        <v>3.2645483333333329</v>
       </c>
       <c r="E79">
         <v>2.830435</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>8</v>
       </c>
@@ -3412,16 +4036,16 @@
         <v>8</v>
       </c>
       <c r="C80">
-        <v>28.497002</v>
+        <v>28.497001999999998</v>
       </c>
       <c r="D80">
-        <v>3.56212525</v>
+        <v>3.5621252499999998</v>
       </c>
       <c r="E80">
-        <v>2.451045</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>2.4510450000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9</v>
       </c>
@@ -3429,16 +4053,16 @@
         <v>8</v>
       </c>
       <c r="C81">
-        <v>20.31279768</v>
+        <v>20.312797679999999</v>
       </c>
       <c r="D81">
         <v>2.25697752</v>
       </c>
       <c r="E81">
-        <v>2.92459</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>2.9245899999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3455,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10</v>
       </c>
@@ -3469,10 +4093,10 @@
         <v>1.53096674</v>
       </c>
       <c r="E84">
-        <v>2.7566075</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>2.7566074999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11</v>
       </c>
@@ -3480,16 +4104,16 @@
         <v>9</v>
       </c>
       <c r="C85">
-        <v>13.07149805</v>
+        <v>13.071498050000001</v>
       </c>
       <c r="D85">
-        <v>1.188318004545455</v>
+        <v>1.1883180045454551</v>
       </c>
       <c r="E85">
-        <v>3.559326363636363</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>3.5593263636363628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
@@ -3500,13 +4124,13 @@
         <v>28.25576616</v>
       </c>
       <c r="D86">
-        <v>2.35464718</v>
+        <v>2.3546471800000002</v>
       </c>
       <c r="E86">
         <v>3.062154908333333</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3520,10 +4144,10 @@
         <v>1.381178372307692</v>
       </c>
       <c r="E87">
-        <v>3.262823076923077</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>3.2628230769230768</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3531,16 +4155,16 @@
         <v>9</v>
       </c>
       <c r="C88">
-        <v>18.40750537</v>
+        <v>18.407505369999999</v>
       </c>
       <c r="D88">
         <v>1.314821812142857</v>
       </c>
       <c r="E88">
-        <v>3.274496064285714</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>3.2744960642857142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>16</v>
       </c>
@@ -3548,16 +4172,16 @@
         <v>9</v>
       </c>
       <c r="C89">
-        <v>18.19045218</v>
+        <v>18.190452180000001</v>
       </c>
       <c r="D89">
-        <v>1.13690326125</v>
+        <v>1.1369032612500001</v>
       </c>
       <c r="E89">
-        <v>1.85590775</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>1.8559077500000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>17</v>
       </c>
@@ -3565,16 +4189,16 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>31.30292714</v>
+        <v>31.302927140000001</v>
       </c>
       <c r="D90">
-        <v>1.841348655294118</v>
+        <v>1.8413486552941181</v>
       </c>
       <c r="E90">
-        <v>3.258277294117647</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>3.2582772941176472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>19</v>
       </c>
@@ -3588,10 +4212,10 @@
         <v>1.437088718421053</v>
       </c>
       <c r="E91">
-        <v>1.910917026315789</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>1.9109170263157891</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -3599,16 +4223,16 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>0.00292889</v>
+        <v>2.92889E-3</v>
       </c>
       <c r="D92">
-        <v>0.001464445</v>
+        <v>1.464445E-3</v>
       </c>
       <c r="E92">
         <v>3.856725</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20</v>
       </c>
@@ -3619,13 +4243,13 @@
         <v>16.92415072</v>
       </c>
       <c r="D93">
-        <v>0.846207536</v>
+        <v>0.84620753599999998</v>
       </c>
       <c r="E93">
-        <v>2.44665615</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>2.4466561499999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>21</v>
       </c>
@@ -3633,16 +4257,16 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>54.91888531999999</v>
+        <v>54.918885319999987</v>
       </c>
       <c r="D94">
-        <v>2.615185015238095</v>
+        <v>2.6151850152380951</v>
       </c>
       <c r="E94">
-        <v>3.016801995238095</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>3.0168019952380951</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -3650,16 +4274,16 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>0.12464455</v>
+        <v>0.12464455000000001</v>
       </c>
       <c r="D95">
-        <v>0.04154818333333334</v>
+        <v>4.1548183333333343E-2</v>
       </c>
       <c r="E95">
-        <v>3.301306666666667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>3.3013066666666671</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -3670,13 +4294,13 @@
         <v>1.0714925</v>
       </c>
       <c r="D96">
-        <v>0.267873125</v>
+        <v>0.26787312499999999</v>
       </c>
       <c r="E96">
-        <v>4.8225075</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>4.8225075000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5</v>
       </c>
@@ -3684,16 +4308,16 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>2.6146944</v>
+        <v>2.6146943999999999</v>
       </c>
       <c r="D97">
-        <v>0.52293888</v>
+        <v>0.52293887999999999</v>
       </c>
       <c r="E97">
         <v>2.990246959999999</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6</v>
       </c>
@@ -3704,13 +4328,13 @@
         <v>12.63791</v>
       </c>
       <c r="D98">
-        <v>2.106318333333333</v>
+        <v>2.1063183333333328</v>
       </c>
       <c r="E98">
         <v>3.941583333333333</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7</v>
       </c>
@@ -3718,16 +4342,16 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>16.280936</v>
+        <v>16.280936000000001</v>
       </c>
       <c r="D99">
-        <v>2.325848</v>
+        <v>2.3258480000000001</v>
       </c>
       <c r="E99">
         <v>3.801177442857143</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>8</v>
       </c>
@@ -3735,16 +4359,16 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>18.621275</v>
+        <v>18.621275000000001</v>
       </c>
       <c r="D100">
-        <v>2.327659375</v>
+        <v>2.3276593750000001</v>
       </c>
       <c r="E100">
         <v>3.279057275</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>9</v>
       </c>
@@ -3758,10 +4382,13 @@
         <v>1.668316255555556</v>
       </c>
       <c r="E101">
-        <v>2.407324844444444</v>
+        <v>2.4073248444444442</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="H1:L101">
+    <sortCondition ref="H1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>